--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/61_Nevşehir_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/61_Nevşehir_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F95D3575-62A1-4BEE-B183-EE2EC357B1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71ACEE95-E4A4-4A82-96A9-DE81735E3E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="660" xr2:uid="{283F2F06-B2CD-49BC-9977-8C8E882AF488}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="660" xr2:uid="{14BFA610-581E-497E-91EC-2BC1FC33E86B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -950,14 +950,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{CFB265B6-A326-41EA-B90E-6DA48EC7B5B5}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{6FC2A52F-6154-43BF-8EC9-87D5ECA0A141}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{FFB8AEE7-D913-4EA7-AA24-A9CB8DB53EB6}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{AF0CAEF1-71E9-425C-A110-24A5A0676A77}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{6BBABAB2-51C0-483D-81CF-FB4527D64372}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{2A82A2CC-6930-4920-A1EC-0C0B453D3BB7}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{9AB37A38-4DAE-4C20-840D-5C05F6B9966F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{35B77610-FA2E-444B-B942-04258BA07B9E}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{0105679D-B7EC-4986-8B5D-44DA49776049}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{01A50A00-7527-4C37-814B-ACFF28B12F26}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{B5E77948-E402-4AD2-8996-868E8743CF95}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{08751B6A-04BB-4734-A3B7-33600A5AD16C}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{E753693D-A253-4A37-9CE7-7F7FC8ACA1E5}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{499ED1C1-73C6-4AEE-81C3-292A060C17D1}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{CA9292C8-E041-4607-A8D0-A6A04DF11D5D}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{4E55C801-DCDD-4426-91DB-64EF07ED2B93}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1327,7 +1327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFB79A0-33E4-4C58-AFE8-515B7D0C8030}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CEDB2A-6216-43B1-8E41-C24998492612}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2600,7 +2600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7D4F31-89A4-4DF0-BD76-9081258A3B99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C4D168-71CD-4085-A4DF-915B55B7044B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3871,7 +3871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CEFCFA-2517-4557-8DFB-2C1FBDD73F13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B41AE80-9454-4A80-872C-8B39D66C6269}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5138,7 +5138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B702FC-659F-4EAA-A422-3ABB052D10F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE1BBE2-8CCD-4F7F-BD50-CB768A409224}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6401,7 +6401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089E3B94-AE06-4514-B2F6-C67709B9E367}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B77D1A9-1117-441A-8E4C-5C1DB79567DE}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7676,7 +7676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A773D23-501B-4732-83D8-214817BA4F94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE1B999-BE40-45FA-B85F-2E68CC3A646B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8951,7 +8951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3028F638-9D71-4FE1-A6F0-D68373E26A24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2408D95-8DE3-476D-9ED5-340DF9E22E83}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10224,7 +10224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840EA6FA-1BA7-4F51-A09E-74A58C982FB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823D8039-B26D-47F5-8890-0020BD6FD896}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11499,7 +11499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DC4261-1761-4A11-9569-8E7F9BE09912}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E18D2B-BDCB-44F7-84DE-DDB0D0EC7B8F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12772,7 +12772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985D0045-76A4-4C39-AF57-85017B32BAD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CAAB1C-3119-4B69-86B4-1A4A22A2391B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14045,7 +14045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7187F10-4E0F-4354-8A3F-6284EC782925}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF69624-A097-4B73-A09E-08702E557541}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15320,7 +15320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1779D69B-1FBE-4DF0-AE16-501C61781F7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44381B5E-D58B-46E5-AB0F-D7125EE36662}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
